--- a/03_Process/YA_10.1.xlsx
+++ b/03_Process/YA_10.1.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">codmpio</t>
   </si>
   <si>
     <t xml:space="preserve">anno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del indicador</t>
   </si>
   <si>
     <t xml:space="preserve">casos</t>
@@ -29,10 +32,19 @@
     <t xml:space="preserve">homicidios</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
+    <t xml:space="preserve">Rangos de edad o edades simples</t>
   </si>
   <si>
     <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de Homicidios en niños, niñas y adolescentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0 a 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -44,9 +56,6 @@
     <t xml:space="preserve">2019</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -54,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
   </si>
 </sst>
 </file>
@@ -401,175 +413,241 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11001</v>
+        <v>999</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>601717</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0.830955415918114</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13744</v>
+        <v>5001</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2567</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>38.9559797428905</v>
+        <v>146899</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.68073982804512</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15238</v>
+        <v>5001</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>9079</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0144289018614</v>
+        <v>175897</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.97960169872141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18001</v>
+        <v>5001</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16655</v>
-      </c>
       <c r="E5" t="n">
-        <v>12.0084058841189</v>
+        <v>175592</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.84751013713609</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18753</v>
+        <v>5001</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>8095</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>12.3533045089561</v>
+        <v>146239</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.36762423156613</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19142</v>
+        <v>5001</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1516</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>65.9630606860158</v>
+        <v>147199</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.679352441252998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20001</v>
+        <v>5001</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>44253</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2.25973380335796</v>
+        <v>178745</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.11891241713055</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25754</v>
+        <v>5001</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>47573</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2.10203266558762</v>
+        <v>144731</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.690936979638087</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44078</v>
+        <v>5001</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>4494</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>22.2518914107699</v>
+        <v>26044</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.67931193365075</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5001</v>
+        <v>5034</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>146899</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.68073982804512</v>
+        <v>637</v>
+      </c>
+      <c r="F11" t="n">
+        <v>156.985871271586</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -577,1780 +655,2414 @@
         <v>5045</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
       </c>
       <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>21504</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.65029761904762</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5837</v>
+        <v>5088</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>19302</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>5.18081027872759</v>
+        <v>37932</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.27259306126753</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5847</v>
+        <v>5088</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>4604</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>21.7202432667246</v>
+        <v>38436</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.60172754709127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>52835</v>
+        <v>5088</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>24769</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>4.03730469538536</v>
+        <v>34277</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.9174081745777</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>54820</v>
+        <v>5138</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>1699</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>58.8581518540318</v>
+        <v>391</v>
+      </c>
+      <c r="F16" t="n">
+        <v>255.754475703325</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>63001</v>
+        <v>5147</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>22759</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>13.18159848851</v>
+        <v>5022</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19.9123855037834</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68001</v>
+        <v>5148</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>35384</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>2.8261361067149</v>
+        <v>991</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100.908173562059</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>68547</v>
+        <v>5154</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>12011</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>8.32570144034635</v>
+        <v>9653</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.3594737387341</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>76001</v>
+        <v>5172</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>176414</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.566848436065165</v>
+        <v>1143</v>
+      </c>
+      <c r="F20" t="n">
+        <v>87.4890638670166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>76364</v>
+        <v>5250</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>9936</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>10.0644122383253</v>
+        <v>1199</v>
+      </c>
+      <c r="F21" t="n">
+        <v>83.4028356964137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8520</v>
+        <v>5282</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>2261</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>44.2282176028306</v>
+        <v>1771</v>
+      </c>
+      <c r="F22" t="n">
+        <v>56.4652738565782</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8638</v>
+        <v>5308</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>9846</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>10.1564086938858</v>
+        <v>4754</v>
+      </c>
+      <c r="F23" t="n">
+        <v>21.0349179638199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11001</v>
+        <v>5360</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>604190</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.496532547708502</v>
+        <v>4191</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.8606537819136</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13001</v>
+        <v>5361</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>82504</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>3.63618733637157</v>
+        <v>2663</v>
+      </c>
+      <c r="F25" t="n">
+        <v>75.1032669921142</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13052</v>
+        <v>5361</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>7463</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>13.3994372236366</v>
+        <v>411</v>
+      </c>
+      <c r="F26" t="n">
+        <v>243.30900243309</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15759</v>
+        <v>5380</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>8242</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>12.132977432662</v>
+        <v>5120</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19.53125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20228</v>
+        <v>5380</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>2788</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>35.8680057388809</v>
+        <v>4306</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23.22340919647</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23466</v>
+        <v>5380</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>9183</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>10.8896874659697</v>
+        <v>4142</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24.1429261226461</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25743</v>
+        <v>5490</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>1869</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>53.5045478865704</v>
+        <v>5098</v>
+      </c>
+      <c r="F30" t="n">
+        <v>19.6155355041193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>47001</v>
+        <v>5579</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>46932</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>2.13074235063496</v>
+        <v>2982</v>
+      </c>
+      <c r="F31" t="n">
+        <v>67.0690811535882</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5001</v>
+        <v>5615</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>146964</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>2.72175498761601</v>
+        <v>2026</v>
+      </c>
+      <c r="F32" t="n">
+        <v>49.3583415597236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5088</v>
+        <v>5615</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>37932</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>5.27259306126753</v>
+        <v>8454</v>
+      </c>
+      <c r="F33" t="n">
+        <v>11.8287201324817</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>52356</v>
+        <v>5660</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>12106</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>8.26036676028416</v>
+        <v>1307</v>
+      </c>
+      <c r="F34" t="n">
+        <v>76.5110941086458</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>54385</v>
+        <v>5664</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
       </c>
       <c r="D35" t="n">
-        <v>1545</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>64.7249190938511</v>
+        <v>308</v>
+      </c>
+      <c r="F35" t="n">
+        <v>324.675324675325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>73001</v>
+        <v>5697</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>43991</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>4.54638448773613</v>
+        <v>3415</v>
+      </c>
+      <c r="F36" t="n">
+        <v>29.2825768667643</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>73067</v>
+        <v>5736</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
       </c>
       <c r="D37" t="n">
-        <v>2551</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>39.2003136025088</v>
+        <v>3652</v>
+      </c>
+      <c r="F37" t="n">
+        <v>27.3822562979189</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>73168</v>
+        <v>5790</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>5345</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>18.7090739008419</v>
+        <v>3082</v>
+      </c>
+      <c r="F38" t="n">
+        <v>32.4464633354964</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73616</v>
+        <v>5837</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>3137</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>31.8775900541919</v>
+        <v>19302</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.18081027872759</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>76001</v>
+        <v>5837</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
       </c>
       <c r="D40" t="n">
-        <v>176657</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1.1321374188399</v>
+        <v>15081</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.63086002254492</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8001</v>
+        <v>5837</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
       </c>
       <c r="D41" t="n">
-        <v>96512</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>1.03614058355438</v>
+        <v>15137</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6.6063288630508</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8573</v>
+        <v>5837</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>2138</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>46.7726847521048</v>
+        <v>14785</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.76361176868448</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>95001</v>
+        <v>5847</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
       </c>
       <c r="D43" t="n">
-        <v>8737</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>11.4455762847659</v>
+        <v>4604</v>
+      </c>
+      <c r="F43" t="n">
+        <v>21.7202432667246</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>999</v>
+        <v>5890</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="n">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="n">
         <v>2</v>
       </c>
-      <c r="D44"/>
-      <c r="E44"/>
+      <c r="E44" t="n">
+        <v>1758</v>
+      </c>
+      <c r="F44" t="n">
+        <v>113.765642775882</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11001</v>
+        <v>5895</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>606238</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.494855155895869</v>
+        <v>3485</v>
+      </c>
+      <c r="F45" t="n">
+        <v>28.6944045911047</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15531</v>
+        <v>5895</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>1046</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>95.6022944550669</v>
+        <v>3149</v>
+      </c>
+      <c r="F46" t="n">
+        <v>31.7561130517625</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18001</v>
+        <v>8001</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47" t="n">
-        <v>9</v>
+      <c r="C47" t="s">
+        <v>8</v>
       </c>
       <c r="D47" t="n">
-        <v>16841</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>53.4410070660887</v>
+        <v>96512</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.03614058355438</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19256</v>
+        <v>8001</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>4397</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>45.4855583352286</v>
+        <v>94389</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.05944548623251</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19397</v>
+        <v>8001</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
       </c>
       <c r="D49" t="n">
-        <v>4650</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>21.505376344086</v>
+        <v>115219</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.33956205139777</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19533</v>
+        <v>8001</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
       </c>
       <c r="D50" t="n">
-        <v>864</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>115.740740740741</v>
+        <v>98635</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.01383890099863</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20001</v>
+        <v>8001</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>44864</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2.22895863052782</v>
+        <v>92260</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.08389334489486</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20228</v>
+        <v>8433</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>2739</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>36.5096750638919</v>
+        <v>11981</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8.34654870211168</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>25286</v>
+        <v>8520</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>6711</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>14.9009089554463</v>
+        <v>2261</v>
+      </c>
+      <c r="F53" t="n">
+        <v>44.2282176028306</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25817</v>
+        <v>8573</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
+      <c r="C54" t="s">
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>3442</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>29.0528762347472</v>
+        <v>2138</v>
+      </c>
+      <c r="F54" t="n">
+        <v>46.7726847521048</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27001</v>
+        <v>8638</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
       </c>
       <c r="D55" t="n">
-        <v>14481</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>6.90560044195843</v>
+        <v>9846</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10.1564086938858</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>41001</v>
+        <v>8638</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>25747</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>3.88394764438575</v>
+        <v>9048</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11.05216622458</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>41524</v>
+        <v>8638</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>3170</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>31.5457413249211</v>
+        <v>9342</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10.7043459644616</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>44001</v>
+        <v>8675</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>35580</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>5.62113546936481</v>
+        <v>1631</v>
+      </c>
+      <c r="F58" t="n">
+        <v>61.3120784794605</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5001</v>
+        <v>8758</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
       </c>
       <c r="D59" t="n">
-        <v>146748</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>2.04432087660479</v>
+        <v>11933</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.38012234978631</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5088</v>
+        <v>8758</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>38436</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>2.60172754709127</v>
+        <v>59501</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5.0419320683686</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5308</v>
+        <v>8758</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
       </c>
       <c r="D61" t="n">
-        <v>4754</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>21.0349179638199</v>
+        <v>56197</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.77945441927505</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5380</v>
+        <v>8758</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>5120</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>19.53125</v>
+        <v>58347</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.71388417570741</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5895</v>
+        <v>8758</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>3485</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>28.6944045911047</v>
+        <v>63969</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.12651440541512</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>54125</v>
+        <v>11001</v>
       </c>
       <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
         <v>7</v>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>178</v>
-      </c>
       <c r="E64" t="n">
-        <v>561.797752808989</v>
+        <v>723155</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.967980585075122</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>54820</v>
+        <v>11001</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
-      <c r="C65" t="n">
-        <v>1</v>
+      <c r="C65" t="s">
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>1697</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>58.9275191514437</v>
+        <v>725941</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.551008966293404</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>68001</v>
+        <v>11001</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
       </c>
       <c r="D66" t="n">
-        <v>34318</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>2.91392272276939</v>
+        <v>728316</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.686515193954273</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>68081</v>
+        <v>11001</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>15348</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>6.51550690643732</v>
+        <v>607892</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.493508715363913</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>68385</v>
+        <v>11001</v>
       </c>
       <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1631</v>
-      </c>
       <c r="E68" t="n">
-        <v>61.3120784794605</v>
+        <v>582163</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.20241238278626</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73055</v>
+        <v>11001</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
       </c>
       <c r="D69" t="n">
-        <v>1033</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>96.8054211035818</v>
+        <v>590427</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.846844741178842</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>73148</v>
+        <v>11001</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
       </c>
       <c r="D70" t="n">
-        <v>738</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>135.50135501355</v>
+        <v>586601</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.36378901502043</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>73624</v>
+        <v>11001</v>
       </c>
       <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
         <v>7</v>
       </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2417</v>
-      </c>
       <c r="E71" t="n">
-        <v>41.3736036408771</v>
+        <v>577509</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.21210232221489</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>76001</v>
+        <v>11001</v>
       </c>
       <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="n">
         <v>7</v>
       </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>176883</v>
-      </c>
       <c r="E72" t="n">
-        <v>0.565345454339874</v>
+        <v>569524</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.22909657889747</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>76520</v>
+        <v>13001</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
-      <c r="C73" t="n">
-        <v>1</v>
+      <c r="C73" t="s">
+        <v>8</v>
       </c>
       <c r="D73" t="n">
-        <v>20971</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>4.76848981927424</v>
+        <v>82504</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.63618733637157</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8433</v>
+        <v>13001</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>11981</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>8.34654870211168</v>
+        <v>102339</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.9542891761694</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>86865</v>
+        <v>13001</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>5654</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>17.6865935620799</v>
+        <v>87145</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.14751276607952</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>99001</v>
+        <v>13001</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>2004</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>49.9001996007984</v>
+        <v>82502</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2.42418365615379</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5282</v>
+        <v>13001</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>1771</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>56.4652738565782</v>
+        <v>80662</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.23974114204954</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5361</v>
+        <v>13052</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>2663</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>75.1032669921142</v>
+        <v>7463</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13.3994372236366</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5001</v>
+        <v>13140</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>146239</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.36762423156613</v>
+        <v>2230</v>
+      </c>
+      <c r="F79" t="n">
+        <v>44.8430493273543</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8001</v>
+        <v>13244</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>94389</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1.05944548623251</v>
+        <v>1388</v>
+      </c>
+      <c r="F80" t="n">
+        <v>72.0461095100865</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8758</v>
+        <v>13430</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>59501</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>5.0419320683686</v>
+        <v>13184</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7.58495145631068</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11001</v>
+        <v>13430</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>607892</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0.493508715363913</v>
+        <v>12565</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7.95861520095503</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15572</v>
+        <v>13468</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>4844</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>20.6440957886045</v>
+        <v>885</v>
+      </c>
+      <c r="F83" t="n">
+        <v>112.994350282486</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>15759</v>
+        <v>13744</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>7903</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>12.6534227508541</v>
+        <v>2567</v>
+      </c>
+      <c r="F84" t="n">
+        <v>38.9559797428905</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18205</v>
+        <v>15204</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="n">
         <v>2</v>
       </c>
-      <c r="D85" t="n">
-        <v>1365</v>
-      </c>
       <c r="E85" t="n">
-        <v>146.520146520147</v>
+        <v>172</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1162.79069767442</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>18001</v>
+        <v>15238</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>16934</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>5.90527931971182</v>
+        <v>9079</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11.0144289018614</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20001</v>
+        <v>15244</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>45167</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>2.2140058006952</v>
+        <v>357</v>
+      </c>
+      <c r="F87" t="n">
+        <v>280.112044817927</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>23001</v>
+        <v>15531</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>40257</v>
+        <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>2.48404004272549</v>
+        <v>1046</v>
+      </c>
+      <c r="F88" t="n">
+        <v>95.6022944550669</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>25290</v>
+        <v>15572</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
       </c>
       <c r="D89" t="n">
-        <v>10810</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>9.25069380203515</v>
+        <v>4844</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20.6440957886045</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>25754</v>
+        <v>15759</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
       </c>
       <c r="D90" t="n">
-        <v>49465</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>4.04326291317093</v>
+        <v>8242</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12.132977432662</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>41132</v>
+        <v>15759</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
       </c>
       <c r="D91" t="n">
-        <v>3134</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>31.9081046585833</v>
+        <v>7903</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12.6534227508541</v>
+      </c>
+      <c r="G91" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>41001</v>
+        <v>17001</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>25437</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>3.93128120454456</v>
+        <v>23975</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4.17101147028154</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>41551</v>
+        <v>17050</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>13232</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>7.55743651753325</v>
+        <v>214</v>
+      </c>
+      <c r="F93" t="n">
+        <v>467.289719626168</v>
+      </c>
+      <c r="G93" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>47053</v>
+        <v>17174</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>5069</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>19.7277569540343</v>
+        <v>3188</v>
+      </c>
+      <c r="F94" t="n">
+        <v>31.3676286072773</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>47707</v>
+        <v>17380</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>3318</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>30.1386377335744</v>
+        <v>966</v>
+      </c>
+      <c r="F95" t="n">
+        <v>103.51966873706</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>50689</v>
+        <v>17444</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>2430</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>41.1522633744856</v>
+        <v>1098</v>
+      </c>
+      <c r="F96" t="n">
+        <v>91.0746812386157</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>50001</v>
+        <v>17444</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
       </c>
       <c r="D97" t="n">
-        <v>43961</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>2.27474352266782</v>
+        <v>1054</v>
+      </c>
+      <c r="F97" t="n">
+        <v>94.876660341556</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>52001</v>
+        <v>17486</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>30959</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>3.23007849090733</v>
+        <v>1524</v>
+      </c>
+      <c r="F98" t="n">
+        <v>65.6167979002625</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>52835</v>
+        <v>18001</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
       </c>
       <c r="D99" t="n">
-        <v>25771</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>3.88033060416747</v>
+        <v>16655</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12.0084058841189</v>
+      </c>
+      <c r="G99" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>54001</v>
+        <v>18001</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>55931</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
-        <v>1.78791725518943</v>
+        <v>16841</v>
+      </c>
+      <c r="F100" t="n">
+        <v>53.4410070660887</v>
+      </c>
+      <c r="G100" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>68077</v>
+        <v>18001</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
       </c>
       <c r="D101" t="n">
-        <v>2482</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>40.290088638195</v>
+        <v>16934</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5.90527931971182</v>
+      </c>
+      <c r="G101" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>68001</v>
+        <v>18001</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>33764</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>5.92346878331951</v>
+        <v>13794</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7.24952878062926</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>70708</v>
+        <v>18150</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
       </c>
       <c r="D103" t="n">
-        <v>6351</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>15.7455518815934</v>
+        <v>3738</v>
+      </c>
+      <c r="F103" t="n">
+        <v>26.7522739432852</v>
+      </c>
+      <c r="G103" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>73001</v>
+        <v>18205</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>43973</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>6.82236827143929</v>
+        <v>1365</v>
+      </c>
+      <c r="F104" t="n">
+        <v>146.520146520147</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>76001</v>
+        <v>18753</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="n">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>177170</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1.69328893153468</v>
+        <v>8095</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12.3533045089561</v>
+      </c>
+      <c r="G105" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5001</v>
+        <v>18753</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>147199</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0.679352441252998</v>
+        <v>5779</v>
+      </c>
+      <c r="F106" t="n">
+        <v>17.3040318394186</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5490</v>
+        <v>19001</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>5098</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>19.6155355041193</v>
+        <v>3678</v>
+      </c>
+      <c r="F107" t="n">
+        <v>54.3773790103317</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5895</v>
+        <v>19001</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>3149</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>31.7561130517625</v>
+        <v>20462</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9.77421561919656</v>
+      </c>
+      <c r="G108" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>81001</v>
+        <v>19142</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>8405</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>11.8976799524093</v>
+        <v>1516</v>
+      </c>
+      <c r="F109" t="n">
+        <v>65.9630606860158</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8001</v>
+        <v>19256</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" t="n">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>96136</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>4.16077223932762</v>
+        <v>4397</v>
+      </c>
+      <c r="F110" t="n">
+        <v>45.4855583352286</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8638</v>
+        <v>19256</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>9048</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>11.05216622458</v>
+        <v>3808</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26.2605042016807</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8675</v>
+        <v>19318</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>1631</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>61.3120784794605</v>
+        <v>3059</v>
+      </c>
+      <c r="F112" t="n">
+        <v>32.69042170644</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8758</v>
+        <v>19397</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>56197</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>1.77945441927505</v>
+        <v>4650</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21.505376344086</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>11001</v>
+        <v>19397</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>483510</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0.620462865297512</v>
+        <v>1733</v>
+      </c>
+      <c r="F114" t="n">
+        <v>57.7034045008655</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>13001</v>
+        <v>19517</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>85266</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1.17280041282575</v>
+        <v>1175</v>
+      </c>
+      <c r="F115" t="n">
+        <v>85.1063829787234</v>
+      </c>
+      <c r="G115" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>85001</v>
+        <v>19533</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>14859</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>6.72992798977051</v>
+        <v>864</v>
+      </c>
+      <c r="F116" t="n">
+        <v>115.740740740741</v>
+      </c>
+      <c r="G116" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117">
@@ -2358,662 +3070,896 @@
         <v>19573</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
       </c>
       <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
         <v>3176</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>31.4861460957179</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>19698</v>
+        <v>19573</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>8805</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>11.3571834185122</v>
+        <v>3171</v>
+      </c>
+      <c r="F118" t="n">
+        <v>31.5357931251971</v>
+      </c>
+      <c r="G118" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>20011</v>
+        <v>19698</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>10670</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>9.37207122774133</v>
+        <v>1624</v>
+      </c>
+      <c r="F119" t="n">
+        <v>61.576354679803</v>
+      </c>
+      <c r="G119" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>25430</v>
+        <v>19698</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>9954</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>10.0462125778581</v>
+        <v>8805</v>
+      </c>
+      <c r="F120" t="n">
+        <v>11.3571834185122</v>
+      </c>
+      <c r="G120" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>25754</v>
+        <v>19780</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>56297</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>1.77629358580386</v>
+        <v>3494</v>
+      </c>
+      <c r="F121" t="n">
+        <v>57.2409845449342</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>25817</v>
+        <v>19807</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>4007</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>24.9563264287497</v>
+        <v>431</v>
+      </c>
+      <c r="F122" t="n">
+        <v>232.018561484919</v>
+      </c>
+      <c r="G122" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>41396</v>
+        <v>20001</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>6736</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>14.8456057007126</v>
+        <v>44253</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2.25973380335796</v>
+      </c>
+      <c r="G123" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>41660</v>
+        <v>20001</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>1226</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>81.5660685154976</v>
+        <v>53827</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.71560740892117</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>41770</v>
+        <v>20001</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>2459</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>40.6669377795852</v>
+        <v>45167</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.2140058006952</v>
+      </c>
+      <c r="G125" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>44420</v>
+        <v>20001</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>362</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>276.243093922652</v>
+        <v>50769</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.93941184581142</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>44001</v>
+        <v>20001</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>23680</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>4.22297297297297</v>
+        <v>48902</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.04490613880823</v>
+      </c>
+      <c r="G127" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>47570</v>
+        <v>20001</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>3404</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>29.3772032902468</v>
+        <v>9080</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11.0132158590308</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>47001</v>
+        <v>20011</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>43602</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>4.58694555295629</v>
+        <v>10670</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9.37207122774133</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>50001</v>
+        <v>20013</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>40514</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>2.4682825689885</v>
+        <v>1180</v>
+      </c>
+      <c r="F130" t="n">
+        <v>84.7457627118644</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>54172</v>
+        <v>20175</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>1409</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>70.97232079489</v>
+        <v>3954</v>
+      </c>
+      <c r="F131" t="n">
+        <v>25.2908447142135</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>54670</v>
+        <v>20178</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>1513</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>66.0938532716457</v>
+        <v>468</v>
+      </c>
+      <c r="F132" t="n">
+        <v>213.675213675214</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>54810</v>
+        <v>20228</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>7089</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>14.1063619692481</v>
+        <v>2788</v>
+      </c>
+      <c r="F133" t="n">
+        <v>35.8680057388809</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>66170</v>
+        <v>20228</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>13763</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>7.26585773450556</v>
+        <v>2739</v>
+      </c>
+      <c r="F134" t="n">
+        <v>36.5096750638919</v>
+      </c>
+      <c r="G134" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>66001</v>
+        <v>20250</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>28574</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>3.49968502834745</v>
+        <v>4781</v>
+      </c>
+      <c r="F135" t="n">
+        <v>20.9161263334031</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>68001</v>
+        <v>20443</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>38156</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>2.62081979243107</v>
+        <v>983</v>
+      </c>
+      <c r="F136" t="n">
+        <v>101.729399796541</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>68307</v>
+        <v>20621</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>12654</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>7.90263948158685</v>
+        <v>3031</v>
+      </c>
+      <c r="F137" t="n">
+        <v>65.9848234905972</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>73124</v>
+        <v>20787</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>66.6666666666667</v>
+        <v>1732</v>
+      </c>
+      <c r="F138" t="n">
+        <v>57.7367205542725</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>76001</v>
+        <v>23001</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" t="n">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>159116</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>1.88541692853013</v>
+        <v>40257</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.48404004272549</v>
+      </c>
+      <c r="G139" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5615</v>
+        <v>23001</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>8454</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>11.8287201324817</v>
+        <v>41837</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.39022874489089</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5837</v>
+        <v>23068</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>15081</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>6.63086002254492</v>
+        <v>1271</v>
+      </c>
+      <c r="F141" t="n">
+        <v>78.6782061369001</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8638</v>
+        <v>23068</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>9342</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>10.7043459644616</v>
+        <v>4888</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20.4582651391162</v>
+      </c>
+      <c r="G142" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8758</v>
+        <v>23466</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>58347</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>1.71388417570741</v>
+        <v>9183</v>
+      </c>
+      <c r="F143" t="n">
+        <v>10.8896874659697</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>11001</v>
+        <v>25269</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="n">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>490875</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>0.814871403106697</v>
+        <v>11567</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8.64528399757932</v>
+      </c>
+      <c r="G144" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>15244</v>
+        <v>25286</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>280.112044817927</v>
+        <v>6711</v>
+      </c>
+      <c r="F145" t="n">
+        <v>14.9009089554463</v>
+      </c>
+      <c r="G145" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>17444</v>
+        <v>25290</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
       </c>
-      <c r="C146" t="n">
-        <v>1</v>
+      <c r="C146" t="s">
+        <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>1098</v>
+        <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>91.0746812386157</v>
+        <v>2171</v>
+      </c>
+      <c r="F146" t="n">
+        <v>46.0617227084293</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>85230</v>
+        <v>25290</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>1414</v>
+        <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>70.7213578500707</v>
+        <v>10810</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9.25069380203515</v>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>85001</v>
+        <v>25430</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" t="n">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>15150</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>19.8019801980198</v>
+        <v>9954</v>
+      </c>
+      <c r="F148" t="n">
+        <v>10.0462125778581</v>
+      </c>
+      <c r="G148" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>19256</v>
+        <v>25430</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>3808</v>
+        <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>26.2605042016807</v>
+        <v>10323</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9.68710646130001</v>
+      </c>
+      <c r="G149" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>19397</v>
+        <v>25486</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
       </c>
-      <c r="C150" t="n">
-        <v>1</v>
+      <c r="C150" t="s">
+        <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>1733</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>57.7034045008655</v>
+        <v>281</v>
+      </c>
+      <c r="F150" t="n">
+        <v>355.871886120996</v>
+      </c>
+      <c r="G150" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>19001</v>
+        <v>25488</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>20462</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>9.77421561919656</v>
+        <v>150</v>
+      </c>
+      <c r="F151" t="n">
+        <v>666.666666666667</v>
+      </c>
+      <c r="G151" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>19780</v>
+        <v>25743</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>2923</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>34.2114266164899</v>
+        <v>1869</v>
+      </c>
+      <c r="F152" t="n">
+        <v>53.5045478865704</v>
+      </c>
+      <c r="G152" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>20175</v>
+        <v>25754</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
       </c>
-      <c r="C153" t="n">
-        <v>1</v>
+      <c r="C153" t="s">
+        <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>3954</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>25.2908447142135</v>
+        <v>47573</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2.10203266558762</v>
+      </c>
+      <c r="G153" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>20001</v>
+        <v>25754</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>50769</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>3.93941184581142</v>
+        <v>9801</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10.2030405060708</v>
+      </c>
+      <c r="G154" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>25269</v>
+        <v>25754</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>11567</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>8.64528399757932</v>
+        <v>49465</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4.04326291317093</v>
+      </c>
+      <c r="G155" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="156">
@@ -3021,1818 +3967,4024 @@
         <v>25754</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>60160</v>
+        <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>1.66223404255319</v>
+        <v>56297</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.77629358580386</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>25817</v>
+        <v>25754</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>4291</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>23.3045910044279</v>
+        <v>71662</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.79087940610086</v>
+      </c>
+      <c r="G157" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>41298</v>
+        <v>25754</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>6951</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>14.3864192202561</v>
+        <v>11786</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.48464279653827</v>
+      </c>
+      <c r="G158" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>44078</v>
+        <v>25754</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>4102</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>24.3783520234032</v>
+        <v>57687</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.73349281467228</v>
+      </c>
+      <c r="G159" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>44430</v>
+        <v>25772</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
       </c>
-      <c r="C160" t="n">
-        <v>1</v>
+      <c r="C160" t="s">
+        <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>22293</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>4.485713004082</v>
+        <v>413</v>
+      </c>
+      <c r="F160" t="n">
+        <v>242.130750605327</v>
+      </c>
+      <c r="G160" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>44001</v>
+        <v>25817</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>23769</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>4.20716058731962</v>
+        <v>3442</v>
+      </c>
+      <c r="F161" t="n">
+        <v>29.0528762347472</v>
+      </c>
+      <c r="G161" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>47189</v>
+        <v>25817</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>11545</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>8.6617583369424</v>
+        <v>4007</v>
+      </c>
+      <c r="F162" t="n">
+        <v>24.9563264287497</v>
+      </c>
+      <c r="G162" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>50325</v>
+        <v>25817</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>1090</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>91.743119266055</v>
+        <v>4291</v>
+      </c>
+      <c r="F163" t="n">
+        <v>23.3045910044279</v>
+      </c>
+      <c r="G163" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>54001</v>
+        <v>25843</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>62085</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>1.61069501489893</v>
+        <v>746</v>
+      </c>
+      <c r="F164" t="n">
+        <v>134.048257372654</v>
+      </c>
+      <c r="G164" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>54720</v>
+        <v>25875</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
-      <c r="C165" t="n">
-        <v>1</v>
+      <c r="C165" t="s">
+        <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>2914</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>34.3170899107756</v>
+        <v>438</v>
+      </c>
+      <c r="F165" t="n">
+        <v>228.310502283105</v>
+      </c>
+      <c r="G165" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>66001</v>
+        <v>27001</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>28830</v>
+        <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>3.46860908775581</v>
+        <v>14481</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6.90560044195843</v>
+      </c>
+      <c r="G166" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>68001</v>
+        <v>27001</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>38970</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>2.56607646907878</v>
+        <v>13757</v>
+      </c>
+      <c r="F167" t="n">
+        <v>14.5380533546558</v>
+      </c>
+      <c r="G167" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>70110</v>
+        <v>27001</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>996</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>100.401606425703</v>
+        <v>2666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>37.5093773443361</v>
+      </c>
+      <c r="G168" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>76001</v>
+        <v>27495</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
-      </c>
-      <c r="C169" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>158695</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>1.26027915183213</v>
+        <v>232</v>
+      </c>
+      <c r="F169" t="n">
+        <v>431.034482758621</v>
+      </c>
+      <c r="G169" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>76834</v>
+        <v>27615</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
       </c>
-      <c r="C170" t="n">
-        <v>1</v>
+      <c r="C170" t="s">
+        <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>15918</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>6.28219625581103</v>
+        <v>844</v>
+      </c>
+      <c r="F170" t="n">
+        <v>118.483412322275</v>
+      </c>
+      <c r="G170" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>5147</v>
+        <v>27615</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>5022</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>19.9123855037834</v>
+        <v>4650</v>
+      </c>
+      <c r="F171" t="n">
+        <v>21.505376344086</v>
+      </c>
+      <c r="G171" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>5154</v>
+        <v>41001</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
       </c>
-      <c r="C172" t="n">
-        <v>1</v>
+      <c r="C172" t="s">
+        <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>9653</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>10.3594737387341</v>
+        <v>25747</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.88394764438575</v>
+      </c>
+      <c r="G172" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5380</v>
+        <v>41001</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>4306</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>23.22340919647</v>
+        <v>25437</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3.93128120454456</v>
+      </c>
+      <c r="G173" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>5001</v>
+        <v>41001</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>149605</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0.66842685739113</v>
+        <v>6208</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16.1082474226804</v>
+      </c>
+      <c r="G174" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>5790</v>
+        <v>41001</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>3082</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>32.4464633354964</v>
+        <v>6098</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16.3988192850115</v>
+      </c>
+      <c r="G175" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>5837</v>
+        <v>41001</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>15137</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>6.6063288630508</v>
+        <v>31149</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3.21037593502199</v>
+      </c>
+      <c r="G176" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5890</v>
+        <v>41132</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
-      </c>
-      <c r="C177" t="n">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>1758</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>113.765642775882</v>
+        <v>3134</v>
+      </c>
+      <c r="F177" t="n">
+        <v>31.9081046585833</v>
+      </c>
+      <c r="G177" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>81001</v>
+        <v>41298</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>9067</v>
+        <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>11.0290062865336</v>
+        <v>6951</v>
+      </c>
+      <c r="F178" t="n">
+        <v>14.3864192202561</v>
+      </c>
+      <c r="G178" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8001</v>
+        <v>41396</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>98635</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>1.01383890099863</v>
+        <v>6736</v>
+      </c>
+      <c r="F179" t="n">
+        <v>14.8456057007126</v>
+      </c>
+      <c r="G179" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11001</v>
+        <v>41396</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>488543</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>1.22814163748125</v>
+        <v>6767</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14.7775971627013</v>
+      </c>
+      <c r="G180" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>13140</v>
+        <v>41396</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>2230</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>44.8430493273543</v>
+        <v>6671</v>
+      </c>
+      <c r="F181" t="n">
+        <v>14.9902563333833</v>
+      </c>
+      <c r="G181" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>13001</v>
+        <v>41524</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
       </c>
-      <c r="C182" t="n">
-        <v>1</v>
+      <c r="C182" t="s">
+        <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>87145</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1.14751276607952</v>
+        <v>3170</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31.5457413249211</v>
+      </c>
+      <c r="G182" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>13430</v>
+        <v>41530</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>13184</v>
+        <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>7.58495145631068</v>
+        <v>265</v>
+      </c>
+      <c r="F183" t="n">
+        <v>377.358490566038</v>
+      </c>
+      <c r="G183" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17174</v>
+        <v>41551</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>3188</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>31.3676286072773</v>
+        <v>13232</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.55743651753325</v>
+      </c>
+      <c r="G184" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17001</v>
+        <v>41551</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>23975</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>4.17101147028154</v>
+        <v>2212</v>
+      </c>
+      <c r="F185" t="n">
+        <v>45.2079566003617</v>
+      </c>
+      <c r="G185" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17486</v>
+        <v>41660</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>1524</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>65.6167979002625</v>
+        <v>1226</v>
+      </c>
+      <c r="F186" t="n">
+        <v>81.5660685154976</v>
+      </c>
+      <c r="G186" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>19573</v>
+        <v>41770</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>3171</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>31.5357931251971</v>
+        <v>2459</v>
+      </c>
+      <c r="F187" t="n">
+        <v>40.6669377795852</v>
+      </c>
+      <c r="G187" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>20443</v>
+        <v>41885</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>983</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>101.729399796541</v>
+        <v>120</v>
+      </c>
+      <c r="F188" t="n">
+        <v>833.333333333333</v>
+      </c>
+      <c r="G188" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>20787</v>
+        <v>44001</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>1732</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>57.7367205542725</v>
+        <v>7195</v>
+      </c>
+      <c r="F189" t="n">
+        <v>27.7970813064628</v>
+      </c>
+      <c r="G189" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>27001</v>
+        <v>44001</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="n">
         <v>2</v>
       </c>
-      <c r="D190" t="n">
-        <v>13757</v>
-      </c>
       <c r="E190" t="n">
-        <v>14.5380533546558</v>
+        <v>35580</v>
+      </c>
+      <c r="F190" t="n">
+        <v>5.62113546936481</v>
+      </c>
+      <c r="G190" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>23068</v>
+        <v>44001</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>4888</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>20.4582651391162</v>
+        <v>23680</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4.22297297297297</v>
+      </c>
+      <c r="G191" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>23001</v>
+        <v>44001</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>41837</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>2.39022874489089</v>
+        <v>23769</v>
+      </c>
+      <c r="F192" t="n">
+        <v>4.20716058731962</v>
+      </c>
+      <c r="G192" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>47551</v>
+        <v>44078</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>3623</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>27.6014352746343</v>
+        <v>4494</v>
+      </c>
+      <c r="F193" t="n">
+        <v>22.2518914107699</v>
+      </c>
+      <c r="G193" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>47980</v>
+        <v>44078</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>8197</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>12.1995852141027</v>
+        <v>4102</v>
+      </c>
+      <c r="F194" t="n">
+        <v>24.3783520234032</v>
+      </c>
+      <c r="G194" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>52835</v>
+        <v>44098</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>25573</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>3.91037422281312</v>
+        <v>1436</v>
+      </c>
+      <c r="F195" t="n">
+        <v>69.6378830083566</v>
+      </c>
+      <c r="G195" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>54405</v>
+        <v>44420</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>7577</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>13.197835554969</v>
+        <v>362</v>
+      </c>
+      <c r="F196" t="n">
+        <v>276.243093922652</v>
+      </c>
+      <c r="G196" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>86320</v>
+        <v>44430</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>3639</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>27.4800769442154</v>
+        <v>4432</v>
+      </c>
+      <c r="F197" t="n">
+        <v>22.5631768953069</v>
+      </c>
+      <c r="G197" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>86568</v>
+        <v>44430</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C198" t="s">
+        <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>5716</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>17.4947515745276</v>
+        <v>22293</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4.485713004082</v>
+      </c>
+      <c r="G198" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>86865</v>
+        <v>44650</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C199" t="s">
+        <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>2749</v>
+        <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>36.3768643142961</v>
+        <v>4620</v>
+      </c>
+      <c r="F199" t="n">
+        <v>21.6450216450216</v>
+      </c>
+      <c r="G199" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>66383</v>
+        <v>47001</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>203.665987780041</v>
+        <v>46932</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.13074235063496</v>
+      </c>
+      <c r="G200" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>66456</v>
+        <v>47001</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>2397</v>
+        <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>41.7188151856487</v>
+        <v>43602</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4.58694555295629</v>
+      </c>
+      <c r="G201" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>68092</v>
+        <v>47001</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>546</v>
+        <v>2</v>
       </c>
       <c r="E202" t="n">
-        <v>183.150183150183</v>
+        <v>8697</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22.9964355524894</v>
+      </c>
+      <c r="G202" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>76001</v>
+        <v>47001</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>157492</v>
+        <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>1.26990577299164</v>
+        <v>41611</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.40321068948115</v>
+      </c>
+      <c r="G203" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>76520</v>
+        <v>47053</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>25549</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>3.91404751653685</v>
+        <v>5069</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19.7277569540343</v>
+      </c>
+      <c r="G204" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>5088</v>
+        <v>47189</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>34277</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>2.9174081745777</v>
+        <v>11545</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8.6617583369424</v>
+      </c>
+      <c r="G205" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>5697</v>
+        <v>47245</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
       </c>
       <c r="D206" t="n">
-        <v>3415</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>29.2825768667643</v>
+        <v>1305</v>
+      </c>
+      <c r="F206" t="n">
+        <v>76.6283524904215</v>
+      </c>
+      <c r="G206" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>5380</v>
+        <v>47288</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
       </c>
       <c r="D207" t="n">
-        <v>4142</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>24.1429261226461</v>
+        <v>1270</v>
+      </c>
+      <c r="F207" t="n">
+        <v>78.740157480315</v>
+      </c>
+      <c r="G207" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>5001</v>
+        <v>47551</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
       </c>
       <c r="D208" t="n">
-        <v>144731</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0.690936979638087</v>
+        <v>3623</v>
+      </c>
+      <c r="F208" t="n">
+        <v>27.6014352746343</v>
+      </c>
+      <c r="G208" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>5837</v>
+        <v>47570</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
       </c>
       <c r="D209" t="n">
-        <v>14785</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>6.76361176868448</v>
+        <v>3404</v>
+      </c>
+      <c r="F209" t="n">
+        <v>29.3772032902468</v>
+      </c>
+      <c r="G209" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>81794</v>
+        <v>47660</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
       </c>
       <c r="D210" t="n">
-        <v>5152</v>
+        <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>19.4099378881988</v>
+        <v>418</v>
+      </c>
+      <c r="F210" t="n">
+        <v>239.234449760766</v>
+      </c>
+      <c r="G210" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>11001</v>
+        <v>47707</v>
       </c>
       <c r="B211" t="s">
         <v>12</v>
       </c>
-      <c r="C211" t="n">
-        <v>3</v>
+      <c r="C211" t="s">
+        <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>486852</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>0.616203692292524</v>
+        <v>3318</v>
+      </c>
+      <c r="F211" t="n">
+        <v>30.1386377335744</v>
+      </c>
+      <c r="G211" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>13001</v>
+        <v>47980</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
       </c>
       <c r="D212" t="n">
-        <v>82502</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>2.42418365615379</v>
+        <v>1633</v>
+      </c>
+      <c r="F212" t="n">
+        <v>61.2369871402327</v>
+      </c>
+      <c r="G212" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>13430</v>
+        <v>47980</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>8</v>
       </c>
       <c r="D213" t="n">
-        <v>12565</v>
+        <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>7.95861520095503</v>
+        <v>8197</v>
+      </c>
+      <c r="F213" t="n">
+        <v>12.1995852141027</v>
+      </c>
+      <c r="G213" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>17444</v>
+        <v>50001</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
       </c>
       <c r="D214" t="n">
-        <v>1054</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>94.876660341556</v>
+        <v>8403</v>
+      </c>
+      <c r="F214" t="n">
+        <v>11.900511722004</v>
+      </c>
+      <c r="G214" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>18150</v>
+        <v>50001</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
       </c>
-      <c r="C215" t="n">
-        <v>1</v>
+      <c r="C215" t="s">
+        <v>8</v>
       </c>
       <c r="D215" t="n">
-        <v>3738</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>26.7522739432852</v>
+        <v>43961</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.27474352266782</v>
+      </c>
+      <c r="G215" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>85001</v>
+        <v>50001</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
       </c>
       <c r="D216" t="n">
-        <v>14974</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>6.67824228663016</v>
+        <v>40514</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2.4682825689885</v>
+      </c>
+      <c r="G216" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19318</v>
+        <v>50001</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
       </c>
       <c r="D217" t="n">
-        <v>3059</v>
+        <v>2</v>
       </c>
       <c r="E217" t="n">
-        <v>32.69042170644</v>
+        <v>39733</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5.0335992751617</v>
+      </c>
+      <c r="G217" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>20250</v>
+        <v>50325</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C218" t="s">
+        <v>8</v>
       </c>
       <c r="D218" t="n">
-        <v>4781</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
-        <v>20.9161263334031</v>
+        <v>1307</v>
+      </c>
+      <c r="F218" t="n">
+        <v>153.022188217292</v>
+      </c>
+      <c r="G218" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>20621</v>
+        <v>50568</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C219" t="s">
+        <v>8</v>
       </c>
       <c r="D219" t="n">
-        <v>3031</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>65.9848234905972</v>
+        <v>1077</v>
+      </c>
+      <c r="F219" t="n">
+        <v>92.8505106778087</v>
+      </c>
+      <c r="G219" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>20001</v>
+        <v>50577</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C220" t="s">
+        <v>8</v>
       </c>
       <c r="D220" t="n">
-        <v>48902</v>
+        <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>2.04490613880823</v>
+        <v>928</v>
+      </c>
+      <c r="F220" t="n">
+        <v>107.758620689655</v>
+      </c>
+      <c r="G220" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>27615</v>
+        <v>50689</v>
       </c>
       <c r="B221" t="s">
         <v>12</v>
       </c>
-      <c r="C221" t="n">
-        <v>1</v>
+      <c r="C221" t="s">
+        <v>8</v>
       </c>
       <c r="D221" t="n">
-        <v>4650</v>
+        <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>21.505376344086</v>
+        <v>2430</v>
+      </c>
+      <c r="F221" t="n">
+        <v>41.1522633744856</v>
+      </c>
+      <c r="G221" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>25430</v>
+        <v>52001</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
       </c>
       <c r="D222" t="n">
-        <v>10323</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>9.68710646130001</v>
+        <v>6137</v>
+      </c>
+      <c r="F222" t="n">
+        <v>16.2946064852534</v>
+      </c>
+      <c r="G222" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>25754</v>
+        <v>52001</v>
       </c>
       <c r="B223" t="s">
         <v>12</v>
       </c>
-      <c r="C223" t="n">
-        <v>1</v>
+      <c r="C223" t="s">
+        <v>8</v>
       </c>
       <c r="D223" t="n">
-        <v>57687</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>1.73349281467228</v>
+        <v>30959</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3.23007849090733</v>
+      </c>
+      <c r="G223" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>41396</v>
+        <v>52356</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>8</v>
       </c>
       <c r="D224" t="n">
-        <v>6767</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>14.7775971627013</v>
+        <v>12106</v>
+      </c>
+      <c r="F224" t="n">
+        <v>8.26036676028416</v>
+      </c>
+      <c r="G224" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>41001</v>
+        <v>52399</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C225" t="s">
+        <v>8</v>
       </c>
       <c r="D225" t="n">
-        <v>31149</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>3.21037593502199</v>
+        <v>2045</v>
+      </c>
+      <c r="F225" t="n">
+        <v>48.8997555012225</v>
+      </c>
+      <c r="G225" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>47001</v>
+        <v>52405</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
       </c>
       <c r="D226" t="n">
-        <v>41611</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>2.40321068948115</v>
+        <v>638</v>
+      </c>
+      <c r="F226" t="n">
+        <v>156.739811912226</v>
+      </c>
+      <c r="G226" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>50577</v>
+        <v>52520</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>928</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>107.758620689655</v>
+        <v>435</v>
+      </c>
+      <c r="F227" t="n">
+        <v>229.885057471264</v>
+      </c>
+      <c r="G227" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>50001</v>
+        <v>52621</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
-      </c>
-      <c r="C228" t="n">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C228" t="s">
+        <v>8</v>
       </c>
       <c r="D228" t="n">
-        <v>39733</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>5.0335992751617</v>
+        <v>1534</v>
+      </c>
+      <c r="F228" t="n">
+        <v>65.1890482398957</v>
+      </c>
+      <c r="G228" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>52399</v>
+        <v>52835</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
       </c>
       <c r="D229" t="n">
-        <v>2045</v>
+        <v>2</v>
       </c>
       <c r="E229" t="n">
-        <v>48.8997555012225</v>
+        <v>30049</v>
+      </c>
+      <c r="F229" t="n">
+        <v>6.6557955339612</v>
+      </c>
+      <c r="G229" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>54001</v>
+        <v>52835</v>
       </c>
       <c r="B230" t="s">
         <v>12</v>
       </c>
-      <c r="C230" t="n">
-        <v>1</v>
+      <c r="C230" t="s">
+        <v>8</v>
       </c>
       <c r="D230" t="n">
-        <v>59457</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>1.68188775081151</v>
+        <v>25771</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3.88033060416747</v>
+      </c>
+      <c r="G230" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>66001</v>
+        <v>52835</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>8</v>
       </c>
       <c r="D231" t="n">
-        <v>28250</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>3.53982300884956</v>
+        <v>25573</v>
+      </c>
+      <c r="F231" t="n">
+        <v>3.91037422281312</v>
+      </c>
+      <c r="G231" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>70713</v>
+        <v>54001</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
       </c>
       <c r="D232" t="n">
-        <v>5179</v>
+        <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>19.3087468623286</v>
+        <v>11256</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8.88415067519545</v>
+      </c>
+      <c r="G232" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>73001</v>
+        <v>54001</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
       </c>
       <c r="D233" t="n">
-        <v>29814</v>
+        <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>3.35412893271617</v>
+        <v>11302</v>
+      </c>
+      <c r="F233" t="n">
+        <v>8.84799150592815</v>
+      </c>
+      <c r="G233" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>73449</v>
+        <v>54001</v>
       </c>
       <c r="B234" t="s">
         <v>12</v>
       </c>
-      <c r="C234" t="n">
-        <v>1</v>
+      <c r="C234" t="s">
+        <v>8</v>
       </c>
       <c r="D234" t="n">
-        <v>2567</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>38.9559797428905</v>
+        <v>55931</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1.78791725518943</v>
+      </c>
+      <c r="G234" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>76001</v>
+        <v>54001</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>152838</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>0.654287546290844</v>
+        <v>62085</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1.61069501489893</v>
+      </c>
+      <c r="G235" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>76364</v>
+        <v>54001</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
       </c>
       <c r="D236" t="n">
-        <v>12984</v>
+        <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>7.70178681454097</v>
+        <v>70465</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2.83828851202725</v>
+      </c>
+      <c r="G236" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>5579</v>
+        <v>54001</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
-      </c>
-      <c r="C237" t="n">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
       </c>
       <c r="D237" t="n">
-        <v>2982</v>
+        <v>4</v>
       </c>
       <c r="E237" t="n">
-        <v>67.0690811535882</v>
+        <v>69384</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5.7650178715554</v>
+      </c>
+      <c r="G237" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>5660</v>
+        <v>54125</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>8</v>
       </c>
       <c r="D238" t="n">
-        <v>1307</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>76.5110941086458</v>
+        <v>178</v>
+      </c>
+      <c r="F238" t="n">
+        <v>561.797752808989</v>
+      </c>
+      <c r="G238" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>5736</v>
+        <v>54172</v>
       </c>
       <c r="B239" t="s">
         <v>13</v>
       </c>
-      <c r="C239" t="n">
-        <v>1</v>
+      <c r="C239" t="s">
+        <v>8</v>
       </c>
       <c r="D239" t="n">
-        <v>3652</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>27.3822562979189</v>
+        <v>1409</v>
+      </c>
+      <c r="F239" t="n">
+        <v>70.97232079489</v>
+      </c>
+      <c r="G239" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>8001</v>
+        <v>54172</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C240" t="s">
+        <v>8</v>
       </c>
       <c r="D240" t="n">
-        <v>92260</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>1.08389334489486</v>
+        <v>1384</v>
+      </c>
+      <c r="F240" t="n">
+        <v>72.2543352601156</v>
+      </c>
+      <c r="G240" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>8758</v>
+        <v>54385</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
       </c>
       <c r="D241" t="n">
-        <v>53999</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>1.85188614603974</v>
+        <v>1545</v>
+      </c>
+      <c r="F241" t="n">
+        <v>64.7249190938511</v>
+      </c>
+      <c r="G241" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>11001</v>
+        <v>54405</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
       </c>
       <c r="D242" t="n">
-        <v>479274</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>1.04324457408497</v>
+        <v>7577</v>
+      </c>
+      <c r="F242" t="n">
+        <v>13.197835554969</v>
+      </c>
+      <c r="G242" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>13001</v>
+        <v>54518</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
       </c>
       <c r="D243" t="n">
-        <v>80662</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1.23974114204954</v>
+        <v>611</v>
+      </c>
+      <c r="F243" t="n">
+        <v>163.66612111293</v>
+      </c>
+      <c r="G243" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>18001</v>
+        <v>54670</v>
       </c>
       <c r="B244" t="s">
         <v>13</v>
       </c>
-      <c r="C244" t="n">
-        <v>1</v>
+      <c r="C244" t="s">
+        <v>8</v>
       </c>
       <c r="D244" t="n">
-        <v>13794</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>7.24952878062926</v>
+        <v>1513</v>
+      </c>
+      <c r="F244" t="n">
+        <v>66.0938532716457</v>
+      </c>
+      <c r="G244" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>18753</v>
+        <v>54720</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
       </c>
       <c r="D245" t="n">
-        <v>5779</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>17.3040318394186</v>
+        <v>2914</v>
+      </c>
+      <c r="F245" t="n">
+        <v>34.3170899107756</v>
+      </c>
+      <c r="G245" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>85010</v>
+        <v>54810</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
       </c>
-      <c r="C246" t="n">
-        <v>1</v>
+      <c r="C246" t="s">
+        <v>8</v>
       </c>
       <c r="D246" t="n">
-        <v>3205</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>31.201248049922</v>
+        <v>7089</v>
+      </c>
+      <c r="F246" t="n">
+        <v>14.1063619692481</v>
+      </c>
+      <c r="G246" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>41396</v>
+        <v>54820</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
       </c>
       <c r="D247" t="n">
-        <v>6671</v>
+        <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>14.9902563333833</v>
+        <v>1699</v>
+      </c>
+      <c r="F247" t="n">
+        <v>58.8581518540318</v>
+      </c>
+      <c r="G247" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>44098</v>
+        <v>54820</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
       </c>
       <c r="D248" t="n">
-        <v>1436</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>69.6378830083566</v>
+        <v>1697</v>
+      </c>
+      <c r="F248" t="n">
+        <v>58.9275191514437</v>
+      </c>
+      <c r="G248" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>44650</v>
+        <v>63001</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
       </c>
       <c r="D249" t="n">
-        <v>4620</v>
+        <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>21.6450216450216</v>
+        <v>22759</v>
+      </c>
+      <c r="F249" t="n">
+        <v>13.18159848851</v>
+      </c>
+      <c r="G249" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>52405</v>
+        <v>63001</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
       </c>
       <c r="D250" t="n">
-        <v>638</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>156.739811912226</v>
+        <v>16813</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5.94777850472848</v>
+      </c>
+      <c r="G250" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>52621</v>
+        <v>66001</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
       </c>
       <c r="D251" t="n">
-        <v>1534</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>65.1890482398957</v>
+        <v>6732</v>
+      </c>
+      <c r="F251" t="n">
+        <v>14.8544266191325</v>
+      </c>
+      <c r="G251" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>54172</v>
+        <v>66001</v>
       </c>
       <c r="B252" t="s">
         <v>13</v>
       </c>
-      <c r="C252" t="n">
-        <v>1</v>
+      <c r="C252" t="s">
+        <v>8</v>
       </c>
       <c r="D252" t="n">
-        <v>1384</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>72.2543352601156</v>
+        <v>28574</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3.49968502834745</v>
+      </c>
+      <c r="G252" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>54001</v>
+        <v>66001</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
       </c>
       <c r="D253" t="n">
-        <v>58500</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>5.12820512820513</v>
+        <v>28830</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3.46860908775581</v>
+      </c>
+      <c r="G253" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>86568</v>
+        <v>66001</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8</v>
       </c>
       <c r="D254" t="n">
-        <v>5611</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>17.822135091784</v>
+        <v>28250</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3.53982300884956</v>
+      </c>
+      <c r="G254" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>86571</v>
+        <v>66170</v>
       </c>
       <c r="B255" t="s">
         <v>13</v>
       </c>
-      <c r="C255" t="n">
-        <v>1</v>
+      <c r="C255" t="s">
+        <v>8</v>
       </c>
       <c r="D255" t="n">
-        <v>3940</v>
+        <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>25.3807106598985</v>
+        <v>13763</v>
+      </c>
+      <c r="F255" t="n">
+        <v>7.26585773450556</v>
+      </c>
+      <c r="G255" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>63001</v>
+        <v>66383</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
-      </c>
-      <c r="C256" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
       </c>
       <c r="D256" t="n">
-        <v>16813</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>5.94777850472848</v>
+        <v>491</v>
+      </c>
+      <c r="F256" t="n">
+        <v>203.665987780041</v>
+      </c>
+      <c r="G256" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>68001</v>
+        <v>66456</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
-      </c>
-      <c r="C257" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
       </c>
       <c r="D257" t="n">
-        <v>35711</v>
+        <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>2.80025762370138</v>
+        <v>2397</v>
+      </c>
+      <c r="F257" t="n">
+        <v>41.7188151856487</v>
+      </c>
+      <c r="G257" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>70708</v>
+        <v>68001</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
       </c>
       <c r="D258" t="n">
-        <v>5209</v>
+        <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>19.1975427145325</v>
+        <v>35384</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2.8261361067149</v>
+      </c>
+      <c r="G258" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>76109</v>
+        <v>68001</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>36208</v>
+        <v>2</v>
       </c>
       <c r="E259" t="n">
-        <v>2.76182059213434</v>
+        <v>40894</v>
+      </c>
+      <c r="F259" t="n">
+        <v>4.89069301119969</v>
+      </c>
+      <c r="G259" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>76001</v>
+        <v>68001</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
-      </c>
-      <c r="C260" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>8</v>
       </c>
       <c r="D260" t="n">
-        <v>149007</v>
+        <v>2</v>
       </c>
       <c r="E260" t="n">
-        <v>0.67110941096727</v>
+        <v>33764</v>
+      </c>
+      <c r="F260" t="n">
+        <v>5.92346878331951</v>
+      </c>
+      <c r="G260" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>76563</v>
+        <v>68001</v>
       </c>
       <c r="B261" t="s">
         <v>13</v>
       </c>
-      <c r="C261" t="n">
-        <v>1</v>
+      <c r="C261" t="s">
+        <v>8</v>
       </c>
       <c r="D261" t="n">
-        <v>3605</v>
+        <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>27.7392510402219</v>
+        <v>38156</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2.62081979243107</v>
+      </c>
+      <c r="G261" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
+        <v>68001</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>46558</v>
+      </c>
+      <c r="F262" t="n">
+        <v>4.29571716998153</v>
+      </c>
+      <c r="G262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>68001</v>
+      </c>
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+      <c r="E263" t="n">
+        <v>35711</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2.80025762370138</v>
+      </c>
+      <c r="G263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>68077</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2482</v>
+      </c>
+      <c r="F264" t="n">
+        <v>40.290088638195</v>
+      </c>
+      <c r="G264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>68081</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>15348</v>
+      </c>
+      <c r="F265" t="n">
+        <v>6.51550690643732</v>
+      </c>
+      <c r="G265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>68092</v>
+      </c>
+      <c r="B266" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="n">
+        <v>546</v>
+      </c>
+      <c r="F266" t="n">
+        <v>183.150183150183</v>
+      </c>
+      <c r="G266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>68217</v>
+      </c>
+      <c r="B267" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>74</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1351.35135135135</v>
+      </c>
+      <c r="G267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>68276</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3933</v>
+      </c>
+      <c r="F268" t="n">
+        <v>25.4258835494533</v>
+      </c>
+      <c r="G268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>68307</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>15167</v>
+      </c>
+      <c r="F269" t="n">
+        <v>19.779785059669</v>
+      </c>
+      <c r="G269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>68307</v>
+      </c>
+      <c r="B270" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2546</v>
+      </c>
+      <c r="F270" t="n">
+        <v>39.2772977219167</v>
+      </c>
+      <c r="G270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>68385</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1631</v>
+      </c>
+      <c r="F271" t="n">
+        <v>61.3120784794605</v>
+      </c>
+      <c r="G271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>68547</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>12011</v>
+      </c>
+      <c r="F272" t="n">
+        <v>8.32570144034635</v>
+      </c>
+      <c r="G272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>70110</v>
+      </c>
+      <c r="B273" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>996</v>
+      </c>
+      <c r="F273" t="n">
+        <v>100.401606425703</v>
+      </c>
+      <c r="G273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>70508</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>338</v>
+      </c>
+      <c r="F274" t="n">
+        <v>295.85798816568</v>
+      </c>
+      <c r="G274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>70708</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>6351</v>
+      </c>
+      <c r="F275" t="n">
+        <v>15.7455518815934</v>
+      </c>
+      <c r="G275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>70708</v>
+      </c>
+      <c r="B276" t="s">
+        <v>16</v>
+      </c>
+      <c r="C276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>5209</v>
+      </c>
+      <c r="F276" t="n">
+        <v>19.1975427145325</v>
+      </c>
+      <c r="G276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>70713</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5179</v>
+      </c>
+      <c r="F277" t="n">
+        <v>19.3087468623286</v>
+      </c>
+      <c r="G277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>73001</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2</v>
+      </c>
+      <c r="E278" t="n">
+        <v>43991</v>
+      </c>
+      <c r="F278" t="n">
+        <v>4.54638448773613</v>
+      </c>
+      <c r="G278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>73001</v>
+      </c>
+      <c r="B279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="n">
+        <v>3</v>
+      </c>
+      <c r="E279" t="n">
+        <v>43973</v>
+      </c>
+      <c r="F279" t="n">
+        <v>6.82236827143929</v>
+      </c>
+      <c r="G279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>73001</v>
+      </c>
+      <c r="B280" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6038</v>
+      </c>
+      <c r="F280" t="n">
+        <v>33.1235508446505</v>
+      </c>
+      <c r="G280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>73001</v>
+      </c>
+      <c r="B281" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="n">
+        <v>29814</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3.35412893271617</v>
+      </c>
+      <c r="G281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>73055</v>
+      </c>
+      <c r="B282" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1033</v>
+      </c>
+      <c r="F282" t="n">
+        <v>96.8054211035818</v>
+      </c>
+      <c r="G282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>73067</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2551</v>
+      </c>
+      <c r="F283" t="n">
+        <v>39.2003136025088</v>
+      </c>
+      <c r="G283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>73124</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F284" t="n">
+        <v>66.6666666666667</v>
+      </c>
+      <c r="G284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>73148</v>
+      </c>
+      <c r="B285" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2</v>
+      </c>
+      <c r="E285" t="n">
+        <v>888</v>
+      </c>
+      <c r="F285" t="n">
+        <v>225.225225225225</v>
+      </c>
+      <c r="G285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>73168</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" t="n">
+        <v>5345</v>
+      </c>
+      <c r="F286" t="n">
+        <v>18.7090739008419</v>
+      </c>
+      <c r="G286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>73268</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1338</v>
+      </c>
+      <c r="F287" t="n">
+        <v>74.7384155455904</v>
+      </c>
+      <c r="G287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>73449</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
+        <v>638</v>
+      </c>
+      <c r="F288" t="n">
+        <v>156.739811912226</v>
+      </c>
+      <c r="G288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>73449</v>
+      </c>
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2567</v>
+      </c>
+      <c r="F289" t="n">
+        <v>38.9559797428905</v>
+      </c>
+      <c r="G289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>73585</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="n">
+        <v>321</v>
+      </c>
+      <c r="F290" t="n">
+        <v>311.526479750779</v>
+      </c>
+      <c r="G290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>73616</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="n">
+        <v>3137</v>
+      </c>
+      <c r="F291" t="n">
+        <v>31.8775900541919</v>
+      </c>
+      <c r="G291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>73624</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2937</v>
+      </c>
+      <c r="F292" t="n">
+        <v>68.0966973101804</v>
+      </c>
+      <c r="G292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B293" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>176414</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.566848436065165</v>
+      </c>
+      <c r="G293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" t="n">
+        <v>3</v>
+      </c>
+      <c r="E294" t="n">
+        <v>212100</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.41442715700141</v>
+      </c>
+      <c r="G294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+      <c r="E295" t="n">
+        <v>176883</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.565345454339874</v>
+      </c>
+      <c r="G295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" t="n">
+        <v>3</v>
+      </c>
+      <c r="E296" t="n">
+        <v>177170</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1.69328893153468</v>
+      </c>
+      <c r="G296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B297" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3</v>
+      </c>
+      <c r="E297" t="n">
+        <v>159116</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1.88541692853013</v>
+      </c>
+      <c r="G297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B298" t="s">
+        <v>17</v>
+      </c>
+      <c r="C298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2</v>
+      </c>
+      <c r="E298" t="n">
+        <v>158695</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1.26027915183213</v>
+      </c>
+      <c r="G298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B299" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3</v>
+      </c>
+      <c r="E299" t="n">
+        <v>188280</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.59337157425112</v>
+      </c>
+      <c r="G299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
+      <c r="E300" t="n">
+        <v>180844</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.10592554909204</v>
+      </c>
+      <c r="G300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>76001</v>
+      </c>
+      <c r="B301" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E301" t="n">
+        <v>149007</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.67110941096727</v>
+      </c>
+      <c r="G301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>76041</v>
+      </c>
+      <c r="B302" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" t="n">
+        <v>279</v>
+      </c>
+      <c r="F302" t="n">
+        <v>358.4229390681</v>
+      </c>
+      <c r="G302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>76109</v>
+      </c>
+      <c r="B303" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>36208</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2.76182059213434</v>
+      </c>
+      <c r="G303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>76364</v>
+      </c>
+      <c r="B304" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>9936</v>
+      </c>
+      <c r="F304" t="n">
+        <v>10.0644122383253</v>
+      </c>
+      <c r="G304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>76364</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>12984</v>
+      </c>
+      <c r="F305" t="n">
+        <v>7.70178681454097</v>
+      </c>
+      <c r="G305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>76520</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>20971</v>
+      </c>
+      <c r="F306" t="n">
+        <v>4.76848981927424</v>
+      </c>
+      <c r="G306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>76520</v>
+      </c>
+      <c r="B307" t="s">
+        <v>14</v>
+      </c>
+      <c r="C307" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1</v>
+      </c>
+      <c r="E307" t="n">
+        <v>25549</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3.91404751653685</v>
+      </c>
+      <c r="G307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>76563</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+      <c r="C308" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3605</v>
+      </c>
+      <c r="F308" t="n">
+        <v>27.7392510402219</v>
+      </c>
+      <c r="G308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
         <v>76834</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B309" t="s">
+        <v>17</v>
+      </c>
+      <c r="C309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" t="n">
+        <v>15918</v>
+      </c>
+      <c r="F309" t="n">
+        <v>6.28219625581103</v>
+      </c>
+      <c r="G309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>76834</v>
+      </c>
+      <c r="B310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+      <c r="E310" t="n">
+        <v>15735</v>
+      </c>
+      <c r="F310" t="n">
+        <v>6.3552589768033</v>
+      </c>
+      <c r="G310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>81001</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2260</v>
+      </c>
+      <c r="F311" t="n">
+        <v>44.2477876106195</v>
+      </c>
+      <c r="G311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>81001</v>
+      </c>
+      <c r="B312" t="s">
         <v>13</v>
       </c>
-      <c r="C262" t="n">
-        <v>1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>15735</v>
-      </c>
-      <c r="E262" t="n">
-        <v>6.3552589768033</v>
+      <c r="C312" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>8405</v>
+      </c>
+      <c r="F312" t="n">
+        <v>11.8976799524093</v>
+      </c>
+      <c r="G312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>81001</v>
+      </c>
+      <c r="B313" t="s">
+        <v>14</v>
+      </c>
+      <c r="C313" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E313" t="n">
+        <v>9067</v>
+      </c>
+      <c r="F313" t="n">
+        <v>11.0290062865336</v>
+      </c>
+      <c r="G313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>81794</v>
+      </c>
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" t="n">
+        <v>5152</v>
+      </c>
+      <c r="F314" t="n">
+        <v>19.4099378881988</v>
+      </c>
+      <c r="G314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>85001</v>
+      </c>
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2597</v>
+      </c>
+      <c r="F315" t="n">
+        <v>38.5059684251059</v>
+      </c>
+      <c r="G315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>85001</v>
+      </c>
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" t="n">
+        <v>14859</v>
+      </c>
+      <c r="F316" t="n">
+        <v>6.72992798977051</v>
+      </c>
+      <c r="G316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>85001</v>
+      </c>
+      <c r="B317" t="s">
+        <v>17</v>
+      </c>
+      <c r="C317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3</v>
+      </c>
+      <c r="E317" t="n">
+        <v>15150</v>
+      </c>
+      <c r="F317" t="n">
+        <v>19.8019801980198</v>
+      </c>
+      <c r="G317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>85001</v>
+      </c>
+      <c r="B318" t="s">
+        <v>15</v>
+      </c>
+      <c r="C318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" t="n">
+        <v>14974</v>
+      </c>
+      <c r="F318" t="n">
+        <v>6.67824228663016</v>
+      </c>
+      <c r="G318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>85010</v>
+      </c>
+      <c r="B319" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>3205</v>
+      </c>
+      <c r="F319" t="n">
+        <v>31.201248049922</v>
+      </c>
+      <c r="G319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>85230</v>
+      </c>
+      <c r="B320" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F320" t="n">
+        <v>70.7213578500707</v>
+      </c>
+      <c r="G320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>86320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>14</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" t="n">
+        <v>3639</v>
+      </c>
+      <c r="F321" t="n">
+        <v>27.4800769442154</v>
+      </c>
+      <c r="G321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>86568</v>
+      </c>
+      <c r="B322" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5716</v>
+      </c>
+      <c r="F322" t="n">
+        <v>17.4947515745276</v>
+      </c>
+      <c r="G322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>86568</v>
+      </c>
+      <c r="B323" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323" t="s">
+        <v>8</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5611</v>
+      </c>
+      <c r="F323" t="n">
+        <v>17.822135091784</v>
+      </c>
+      <c r="G323" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>86571</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+      <c r="C324" t="s">
+        <v>8</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>3940</v>
+      </c>
+      <c r="F324" t="n">
+        <v>25.3807106598985</v>
+      </c>
+      <c r="G324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>86573</v>
+      </c>
+      <c r="B325" t="s">
+        <v>16</v>
+      </c>
+      <c r="C325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>672</v>
+      </c>
+      <c r="F325" t="n">
+        <v>148.809523809524</v>
+      </c>
+      <c r="G325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>86865</v>
+      </c>
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5654</v>
+      </c>
+      <c r="F326" t="n">
+        <v>17.6865935620799</v>
+      </c>
+      <c r="G326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>86865</v>
+      </c>
+      <c r="B327" t="s">
+        <v>14</v>
+      </c>
+      <c r="C327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2749</v>
+      </c>
+      <c r="F327" t="n">
+        <v>36.3768643142961</v>
+      </c>
+      <c r="G327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>86865</v>
+      </c>
+      <c r="B328" t="s">
+        <v>16</v>
+      </c>
+      <c r="C328" t="s">
+        <v>8</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>494</v>
+      </c>
+      <c r="F328" t="n">
+        <v>202.429149797571</v>
+      </c>
+      <c r="G328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>95001</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>8</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" t="n">
+        <v>8737</v>
+      </c>
+      <c r="F329" t="n">
+        <v>11.4455762847659</v>
+      </c>
+      <c r="G329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>99001</v>
+      </c>
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F330" t="n">
+        <v>49.9001996007984</v>
+      </c>
+      <c r="G330" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
